--- a/AN-SNAP rules (DMN).xlsx
+++ b/AN-SNAP rules (DMN).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russe\Documents\PyPI\github\pyDMNrules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82cfe7acc6d68563/Documents/PyPI/github/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A52F69-2567-47B2-8A3A-351F8288495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{86060A51-056A-4E9C-9F83-02FBF20767DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C62BAAC0-92ED-4DD5-9D13-1C2D8ADF70A7}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="13" xr2:uid="{107EBB60-7292-470E-BB17-95A9AB1C3129}"/>
+    <workbookView xWindow="-15450" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{107EBB60-7292-470E-BB17-95A9AB1C3129}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="668">
   <si>
     <t>Glossary glossary</t>
   </si>
@@ -667,9 +667,6 @@
     <t>Section 4, Figure 2</t>
   </si>
   <si>
-    <t>[13-18]</t>
-  </si>
-  <si>
     <t>AROCcode</t>
   </si>
   <si>
@@ -1342,9 +1339,6 @@
     <t>[17 .. 25]</t>
   </si>
   <si>
-    <t>[5 .. -16]</t>
-  </si>
-  <si>
     <t>[19 .. 41]</t>
   </si>
   <si>
@@ -1357,9 +1351,6 @@
     <t>[68 .. 91]</t>
   </si>
   <si>
-    <t>[31 .  67]</t>
-  </si>
-  <si>
     <t>[19 .. 30]</t>
   </si>
   <si>
@@ -1450,9 +1441,6 @@
     <t>[18 .. 56]</t>
   </si>
   <si>
-    <t>[13 . 17]</t>
-  </si>
-  <si>
     <t>[3 .. 4]</t>
   </si>
   <si>
@@ -2020,9 +2008,6 @@
     <t>"8.1"</t>
   </si>
   <si>
-    <t>"'8.2","8.3"</t>
-  </si>
-  <si>
     <t>"7","9","10"</t>
   </si>
   <si>
@@ -2039,6 +2024,33 @@
   </si>
   <si>
     <t>"9"</t>
+  </si>
+  <si>
+    <t>Rehabilitation,"Palliative Care"</t>
+  </si>
+  <si>
+    <t>[13 .. 91]</t>
+  </si>
+  <si>
+    <t>[5 .. 16]</t>
+  </si>
+  <si>
+    <t>[13 .. 17]</t>
+  </si>
+  <si>
+    <t>[31 ..  67]</t>
+  </si>
+  <si>
+    <t>[5 .. 35]</t>
+  </si>
+  <si>
+    <t>"1","2","3","4","5","6","7","8.1","8.2","8.3","9","10","11","12","13","14","15","16"</t>
+  </si>
+  <si>
+    <t>[13 .. 18]</t>
+  </si>
+  <si>
+    <t>"8.2","8.3"</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2705,21 +2717,6 @@
         <color indexed="64"/>
       </left>
       <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="double">
@@ -2850,7 +2847,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3061,50 +3058,47 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -3119,8 +3113,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3235,15 +3247,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3562,10 +3565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0711C580-E627-4D0E-9733-7D2A709A4C80}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3578,11 +3582,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="14" t="s">
@@ -3605,8 +3609,8 @@
       <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="98" t="s">
-        <v>309</v>
+      <c r="C4" s="103" t="s">
+        <v>308</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>15</v>
@@ -3622,7 +3626,7 @@
       <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="99"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
@@ -3637,7 +3641,7 @@
       <c r="B6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="99"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
@@ -3652,7 +3656,7 @@
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="99"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="13" t="s">
         <v>37</v>
       </c>
@@ -3667,7 +3671,7 @@
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="13" t="s">
         <v>39</v>
       </c>
@@ -3682,7 +3686,7 @@
       <c r="B9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="99"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
@@ -3697,7 +3701,7 @@
       <c r="B10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="100"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="13" t="s">
         <v>41</v>
       </c>
@@ -3712,8 +3716,8 @@
       <c r="B11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="101" t="s">
-        <v>310</v>
+      <c r="C11" s="106" t="s">
+        <v>309</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>32</v>
@@ -3729,12 +3733,12 @@
       <c r="B12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="99"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>28</v>
@@ -3742,163 +3746,163 @@
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>644</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="E13" s="137" t="s">
-        <v>648</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B14" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="101" t="s">
-        <v>311</v>
+        <v>244</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>310</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" s="100"/>
+        <v>245</v>
+      </c>
+      <c r="C15" s="105"/>
       <c r="D15" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="F16" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="C17" s="105" t="s">
-        <v>367</v>
+        <v>351</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>366</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="51" t="s">
-        <v>354</v>
-      </c>
-      <c r="C18" s="105"/>
+        <v>353</v>
+      </c>
+      <c r="C18" s="110"/>
       <c r="D18" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="C19" s="105"/>
+        <v>352</v>
+      </c>
+      <c r="C19" s="110"/>
       <c r="D19" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="C20" s="101" t="s">
-        <v>307</v>
+        <v>270</v>
+      </c>
+      <c r="C20" s="106" t="s">
+        <v>306</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="99"/>
+        <v>271</v>
+      </c>
+      <c r="C21" s="104"/>
       <c r="D21" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="70" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="105"/>
+      <c r="D22" s="13" t="s">
         <v>343</v>
-      </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="13" t="s">
-        <v>344</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="101" t="s">
-        <v>308</v>
+        <v>287</v>
+      </c>
+      <c r="C23" s="106" t="s">
+        <v>307</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="6" t="s">
@@ -3907,11 +3911,11 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="C24" s="99"/>
+        <v>288</v>
+      </c>
+      <c r="C24" s="104"/>
       <c r="D24" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="6" t="s">
@@ -3922,22 +3926,22 @@
       <c r="B25" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="99"/>
+      <c r="C25" s="104"/>
       <c r="D25" s="13" t="s">
         <v>201</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="C26" s="100"/>
+        <v>289</v>
+      </c>
+      <c r="C26" s="105"/>
       <c r="D26" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="6" t="s">
@@ -3949,7 +3953,7 @@
         <v>202</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>203</v>
@@ -3961,33 +3965,33 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C29" s="107" t="s">
         <v>400</v>
       </c>
-      <c r="C29" s="102" t="s">
-        <v>401</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>22</v>
@@ -3997,12 +4001,12 @@
       <c r="B30" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="103"/>
+      <c r="C30" s="108"/>
       <c r="D30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>22</v>
@@ -4010,14 +4014,14 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C31" s="109"/>
+      <c r="D31" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>22</v>
@@ -4040,10 +4044,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6140408A-3353-45EB-B555-CBBB329C9794}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4052,7 +4057,7 @@
     <col min="3" max="3" width="19.26953125" customWidth="1"/>
     <col min="4" max="4" width="17.36328125" style="43" customWidth="1"/>
     <col min="5" max="5" width="17.36328125" customWidth="1"/>
-    <col min="6" max="6" width="33.81640625" customWidth="1"/>
+    <col min="6" max="6" width="37.26953125" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" customWidth="1"/>
     <col min="9" max="9" width="45.90625" customWidth="1"/>
@@ -4065,51 +4070,51 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="M2" s="128" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="M2" s="133" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="N2" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="O2" s="130" t="s">
+      <c r="O2" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="P2" s="135" t="s">
         <v>212</v>
       </c>
-      <c r="P2" s="130" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D3" s="62" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="G3" s="85" t="s">
+        <v>374</v>
+      </c>
+      <c r="G3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="90" t="s">
-        <v>396</v>
+      <c r="H3" s="89" t="s">
+        <v>395</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
@@ -4117,48 +4122,48 @@
       <c r="J3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="129"/>
+      <c r="M3" s="134"/>
       <c r="N3" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
+        <v>210</v>
+      </c>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
     </row>
     <row r="4" spans="2:16" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="112"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="23" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="54" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="G4" s="23"/>
-      <c r="H4" s="91"/>
+      <c r="H4" s="90"/>
       <c r="I4" s="4"/>
       <c r="J4" s="21"/>
       <c r="M4" s="37">
         <v>1</v>
       </c>
       <c r="N4" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="O4" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="P4" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="132" t="s">
-        <v>647</v>
+      <c r="C5" s="137" t="s">
+        <v>643</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>204</v>
@@ -4169,14 +4174,14 @@
       <c r="F5" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="88" t="s">
-        <v>559</v>
+      <c r="G5" s="87" t="s">
+        <v>555</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>50</v>
@@ -4185,303 +4190,303 @@
         <v>2</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="116" t="s">
+      <c r="C6" s="119"/>
+      <c r="D6" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="121" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>646</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>560</v>
+        <v>642</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>556</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M6" s="37">
         <v>3</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="G7" s="88" t="s">
-        <v>561</v>
+        <v>643</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>557</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M7" s="37">
         <v>4</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O7" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P7" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="G8" s="88" t="s">
-        <v>562</v>
+        <v>650</v>
+      </c>
+      <c r="G8" s="87" t="s">
+        <v>558</v>
       </c>
       <c r="H8" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M8" s="37">
         <v>5</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O8" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P8" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="G9" s="88" t="s">
-        <v>563</v>
+        <v>656</v>
+      </c>
+      <c r="G9" s="87" t="s">
+        <v>559</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M9" s="37">
         <v>6</v>
       </c>
       <c r="N9" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O9" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P9" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="G10" s="88" t="s">
-        <v>564</v>
+        <v>657</v>
+      </c>
+      <c r="G10" s="87" t="s">
+        <v>560</v>
       </c>
       <c r="H10" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M10" s="37">
         <v>7</v>
       </c>
       <c r="N10" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="P10" s="38" t="s">
         <v>221</v>
-      </c>
-      <c r="O10" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="P10" s="38" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="G11" s="88" t="s">
-        <v>565</v>
+        <v>658</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>561</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M11" s="37">
         <v>8.1</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O11" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P11" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="G12" s="88" t="s">
-        <v>566</v>
+      <c r="G12" s="87" t="s">
+        <v>562</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M12" s="37">
         <v>8.1</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P12" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>643</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="87" t="s">
+        <v>563</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C13" s="74" t="s">
-        <v>647</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="J13" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M13" s="37">
         <v>8.1</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4489,187 +4494,187 @@
         <v>172</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="E14" s="116" t="s">
+        <v>466</v>
+      </c>
+      <c r="E14" s="121" t="s">
         <v>204</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="G14" s="88" t="s">
-        <v>568</v>
+      <c r="G14" s="87" t="s">
+        <v>564</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M14" s="37">
         <v>8.1</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="113" t="s">
-        <v>646</v>
-      </c>
-      <c r="D15" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="117"/>
+      <c r="C15" s="118" t="s">
+        <v>642</v>
+      </c>
+      <c r="D15" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="122"/>
       <c r="F15" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="G15" s="88" t="s">
-        <v>569</v>
+        <v>650</v>
+      </c>
+      <c r="G15" s="87" t="s">
+        <v>565</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M15" s="37">
         <v>8.1</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P15" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="G16" s="88" t="s">
-        <v>570</v>
+        <v>643</v>
+      </c>
+      <c r="G16" s="87" t="s">
+        <v>566</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M16" s="37">
         <v>8.1999999999999993</v>
       </c>
       <c r="N16" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="P16" s="38" t="s">
         <v>224</v>
-      </c>
-      <c r="O16" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="P16" s="38" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="30" t="s">
-        <v>653</v>
-      </c>
-      <c r="G17" s="88" t="s">
-        <v>571</v>
+        <v>649</v>
+      </c>
+      <c r="G17" s="87" t="s">
+        <v>567</v>
       </c>
       <c r="H17" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M17" s="37">
         <v>8.3000000000000007</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="G18" s="88" t="s">
-        <v>572</v>
+      <c r="G18" s="87" t="s">
+        <v>568</v>
       </c>
       <c r="H18" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M18" s="37">
         <v>9</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>204</v>
@@ -4684,42 +4689,42 @@
         <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H19" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="135">
+      <c r="M19" s="97">
         <v>10</v>
       </c>
-      <c r="N19" s="136" t="s">
+      <c r="N19" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="O19" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="P19" s="98" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M20" s="97">
+        <v>11</v>
+      </c>
+      <c r="N20" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="O19" s="136" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" s="136" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M20" s="135">
-        <v>11</v>
-      </c>
-      <c r="N20" s="136" t="s">
-        <v>229</v>
-      </c>
-      <c r="O20" s="136" t="s">
-        <v>215</v>
-      </c>
-      <c r="P20" s="136" t="s">
-        <v>215</v>
+      <c r="O20" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="P20" s="98" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4727,13 +4732,13 @@
         <v>12</v>
       </c>
       <c r="N21" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P21" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4741,13 +4746,13 @@
         <v>13</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4756,13 +4761,13 @@
         <v>14</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P23" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4770,13 +4775,13 @@
         <v>15</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P24" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4784,13 +4789,13 @@
         <v>16</v>
       </c>
       <c r="N25" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="O25" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="P25" s="38" t="s">
         <v>234</v>
-      </c>
-      <c r="O25" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="P25" s="38" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4815,10 +4820,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69224957-6C42-4551-A811-8CCACEEFE7B3}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4839,49 +4845,49 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
       <c r="N2" s="65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O2" s="66" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D3" s="62" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>202</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="H3" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="90" t="s">
-        <v>396</v>
+      <c r="I3" s="89" t="s">
+        <v>395</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>9</v>
@@ -4893,41 +4899,41 @@
         <v>0</v>
       </c>
       <c r="O3" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="112"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="23" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="54"/>
       <c r="F4" s="54"/>
       <c r="G4" s="52"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="91"/>
+      <c r="I4" s="90"/>
       <c r="J4" s="4"/>
       <c r="K4" s="21"/>
       <c r="N4" s="67">
         <v>1</v>
       </c>
       <c r="O4" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="115" t="s">
-        <v>647</v>
-      </c>
-      <c r="D5" s="133" t="s">
+      <c r="C5" s="120" t="s">
+        <v>643</v>
+      </c>
+      <c r="D5" s="138" t="s">
         <v>204</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>204</v>
@@ -4935,201 +4941,201 @@
       <c r="G5" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="88" t="s">
-        <v>606</v>
+      <c r="H5" s="87" t="s">
+        <v>602</v>
       </c>
       <c r="I5" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N5" s="67">
         <v>2</v>
       </c>
       <c r="O5" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="122" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="122">
+      <c r="C6" s="139"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="127" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="127">
         <v>4</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>607</v>
+        <v>475</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>603</v>
       </c>
       <c r="I6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N6" s="67">
         <v>3</v>
       </c>
       <c r="O6" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
       <c r="G7" s="30" t="s">
-        <v>480</v>
-      </c>
-      <c r="H7" s="88" t="s">
-        <v>608</v>
+        <v>476</v>
+      </c>
+      <c r="H7" s="87" t="s">
+        <v>604</v>
       </c>
       <c r="I7" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N7" s="67">
         <v>9</v>
       </c>
       <c r="O7" s="68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="122"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="127"/>
       <c r="F8" s="39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="88" t="s">
-        <v>609</v>
+      <c r="H8" s="87" t="s">
+        <v>605</v>
       </c>
       <c r="I8" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="122" t="s">
-        <v>275</v>
+      <c r="C9" s="139"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="127" t="s">
+        <v>274</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="H9" s="88" t="s">
-        <v>610</v>
+        <v>477</v>
+      </c>
+      <c r="H9" s="87" t="s">
+        <v>606</v>
       </c>
       <c r="I9" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="122"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="127"/>
       <c r="F10" s="39" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>482</v>
-      </c>
-      <c r="H10" s="88" t="s">
-        <v>611</v>
+        <v>478</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>607</v>
       </c>
       <c r="I10" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="122"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="39" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G11" s="30"/>
-      <c r="H11" s="88" t="s">
-        <v>612</v>
+      <c r="H11" s="87" t="s">
+        <v>608</v>
       </c>
       <c r="I11" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="118"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="123"/>
       <c r="E12" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>204</v>
@@ -5137,25 +5143,25 @@
       <c r="G12" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="88" t="s">
-        <v>613</v>
+      <c r="H12" s="87" t="s">
+        <v>609</v>
       </c>
       <c r="I12" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>204</v>
@@ -5169,17 +5175,17 @@
       <c r="G13" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="88" t="s">
-        <v>614</v>
+      <c r="H13" s="87" t="s">
+        <v>610</v>
       </c>
       <c r="I13" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
@@ -5187,13 +5193,13 @@
         <v>185</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D14" s="39">
         <v>0</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>204</v>
@@ -5201,31 +5207,31 @@
       <c r="G14" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="H14" s="88" t="s">
-        <v>615</v>
+      <c r="H14" s="87" t="s">
+        <v>611</v>
       </c>
       <c r="I14" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="113" t="s">
-        <v>646</v>
-      </c>
-      <c r="D15" s="116" t="s">
-        <v>280</v>
+      <c r="C15" s="118" t="s">
+        <v>642</v>
+      </c>
+      <c r="D15" s="121" t="s">
+        <v>279</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>204</v>
@@ -5233,27 +5239,27 @@
       <c r="G15" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="H15" s="88" t="s">
-        <v>616</v>
+      <c r="H15" s="87" t="s">
+        <v>612</v>
       </c>
       <c r="I15" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="118"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="123"/>
       <c r="E16" s="39" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>204</v>
@@ -5261,17 +5267,17 @@
       <c r="G16" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="H16" s="88" t="s">
-        <v>617</v>
+      <c r="H16" s="87" t="s">
+        <v>613</v>
       </c>
       <c r="I16" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
@@ -5279,13 +5285,13 @@
         <v>188</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>204</v>
@@ -5293,25 +5299,25 @@
       <c r="G17" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="H17" s="88" t="s">
-        <v>618</v>
+      <c r="H17" s="87" t="s">
+        <v>614</v>
       </c>
       <c r="I17" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>204</v>
@@ -5325,17 +5331,17 @@
       <c r="G18" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="H18" s="88" t="s">
-        <v>619</v>
+      <c r="H18" s="87" t="s">
+        <v>615</v>
       </c>
       <c r="I18" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
@@ -5358,13 +5364,13 @@
         <v>204</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I19" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>22</v>
@@ -5389,6 +5395,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A0FD82-4C08-48EA-9BE8-7906D60A13A8}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5404,35 +5411,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="D3" s="64" t="s">
-        <v>354</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>353</v>
-      </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="90" t="s">
-        <v>396</v>
+      <c r="G3" s="89" t="s">
+        <v>395</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -5442,7 +5449,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="112"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="56" t="s">
         <v>10</v>
       </c>
@@ -5451,7 +5458,7 @@
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="91"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="4"/>
       <c r="I4" s="21"/>
     </row>
@@ -5468,17 +5475,17 @@
       <c r="E5" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="88" t="s">
-        <v>620</v>
+      <c r="F5" s="87" t="s">
+        <v>616</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
@@ -5492,19 +5499,19 @@
         <v>204</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="F6" s="88" t="s">
-        <v>621</v>
+        <v>354</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>617</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
@@ -5518,19 +5525,19 @@
         <v>204</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="F7" s="88" t="s">
-        <v>622</v>
+        <v>355</v>
+      </c>
+      <c r="F7" s="87" t="s">
+        <v>618</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
@@ -5546,17 +5553,17 @@
       <c r="E8" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="88" t="s">
-        <v>623</v>
+      <c r="F8" s="87" t="s">
+        <v>619</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -5571,6 +5578,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF01EA41-6160-4608-B899-AD299A0CC088}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5587,39 +5595,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" s="62" t="s">
         <v>200</v>
       </c>
       <c r="E3" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="F3" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="90" t="s">
-        <v>396</v>
+      <c r="H3" s="89" t="s">
+        <v>395</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
@@ -5629,17 +5637,17 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="112"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="71" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="54"/>
       <c r="F4" s="54" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G4" s="23"/>
-      <c r="H4" s="91"/>
+      <c r="H4" s="90"/>
       <c r="I4" s="4"/>
       <c r="J4" s="21"/>
     </row>
@@ -5653,28 +5661,28 @@
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
       <c r="F5" s="50"/>
-      <c r="G5" s="88" t="s">
-        <v>624</v>
+      <c r="G5" s="87" t="s">
+        <v>620</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="118" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>204</v>
@@ -5682,146 +5690,146 @@
       <c r="F6" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="88" t="s">
-        <v>625</v>
+      <c r="G6" s="87" t="s">
+        <v>621</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="116" t="s">
+      <c r="C7" s="119"/>
+      <c r="D7" s="121" t="s">
         <v>204</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F7" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="G7" s="88" t="s">
-        <v>626</v>
+      <c r="G7" s="87" t="s">
+        <v>622</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="117"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="122"/>
       <c r="E8" s="39" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F8" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="G8" s="88" t="s">
-        <v>627</v>
+      <c r="G8" s="87" t="s">
+        <v>623</v>
       </c>
       <c r="H8" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="116" t="s">
-        <v>485</v>
+      <c r="C9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="121" t="s">
+        <v>481</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="G9" s="88" t="s">
-        <v>628</v>
+        <v>482</v>
+      </c>
+      <c r="G9" s="87" t="s">
+        <v>624</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="G10" s="88" t="s">
-        <v>629</v>
+        <v>483</v>
+      </c>
+      <c r="G10" s="87" t="s">
+        <v>625</v>
       </c>
       <c r="H10" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>626</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="88" t="s">
-        <v>630</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>372</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5839,9 +5847,12 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6ED376-B6A2-407A-BB0F-26AD96C9F23C}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5854,7 +5865,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -5862,7 +5873,7 @@
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="63" t="s">
@@ -5879,7 +5890,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="112"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="71"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
@@ -5887,31 +5898,31 @@
     </row>
     <row r="5" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C5" s="60" t="s">
         <v>204</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -5919,7 +5930,7 @@
       <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="63" t="s">
@@ -5936,7 +5947,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="112"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="71"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -5944,16 +5955,16 @@
     </row>
     <row r="11" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C11" s="60" t="s">
         <v>204</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>22</v>
@@ -5961,7 +5972,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -5969,7 +5980,7 @@
       <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="63" t="s">
@@ -5986,7 +5997,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="112"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="71"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
@@ -5994,16 +6005,16 @@
     </row>
     <row r="17" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B17" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>22</v>
@@ -6021,9 +6032,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC3A2A1-A6EB-4082-B1C1-FC496C7BADD2}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6036,14 +6050,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="75" t="s">
@@ -6056,7 +6070,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>4</v>
@@ -6082,13 +6096,13 @@
         <v>204</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
@@ -6098,20 +6112,20 @@
       <c r="C5" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>42</v>
+      <c r="D5" s="100" t="s">
+        <v>659</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -6128,7 +6142,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>43</v>
@@ -6145,13 +6159,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>110</v>
@@ -6174,7 +6188,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>112</v>
@@ -6197,7 +6211,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>116</v>
@@ -6220,7 +6234,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>119</v>
@@ -6243,7 +6257,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>121</v>
@@ -6260,13 +6274,13 @@
         <v>12</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>122</v>
@@ -6289,7 +6303,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>123</v>
@@ -6312,7 +6326,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>124</v>
@@ -6335,13 +6349,13 @@
         <v>12</v>
       </c>
       <c r="F15" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
@@ -6349,7 +6363,7 @@
         <v>204</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>204</v>
@@ -6358,18 +6372,18 @@
         <v>12</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>204</v>
@@ -6381,13 +6395,13 @@
         <v>12</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -6401,9 +6415,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8936C2E3-B873-4CB7-9F16-77CCCBD6389F}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6414,39 +6431,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
-        <v>405</v>
-      </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="B2" s="114" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="94" t="s">
-        <v>396</v>
-      </c>
-      <c r="E3" s="95" t="s">
+      <c r="D3" s="93" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="94" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -6460,10 +6477,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316257DE-26B4-44B3-9955-DBAC64DACD02}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6477,17 +6495,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="B2" s="114" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="55" t="s">
@@ -6497,7 +6515,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -6507,7 +6525,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="112"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="56"/>
       <c r="D4" s="52"/>
       <c r="E4" s="3"/>
@@ -6516,102 +6534,102 @@
     </row>
     <row r="5" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>413</v>
+        <v>383</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>412</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>204</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>411</v>
+        <v>384</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>410</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>412</v>
+        <v>385</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>411</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>414</v>
+        <v>386</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>413</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="C9" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -6627,11 +6645,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E48DE1-E0A6-4F78-A2EB-E75B1379EEF3}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:S64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6639,7 +6658,7 @@
     <col min="2" max="2" width="29.54296875" customWidth="1"/>
     <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="5" width="22.7265625" customWidth="1"/>
-    <col min="6" max="6" width="33.36328125" customWidth="1"/>
+    <col min="6" max="6" width="36.6328125" customWidth="1"/>
     <col min="7" max="7" width="15.453125" customWidth="1"/>
     <col min="8" max="9" width="22.7265625" customWidth="1"/>
     <col min="10" max="10" width="17.1796875" customWidth="1"/>
@@ -6654,63 +6673,63 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="P2" s="128" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="P2" s="133" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q2" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="R2" s="130" t="s">
+      <c r="R2" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="S2" s="135" t="s">
         <v>212</v>
       </c>
-      <c r="S2" s="130" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="80" t="s">
-        <v>396</v>
+      <c r="K3" s="79" t="s">
+        <v>395</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>9</v>
@@ -6718,45 +6737,49 @@
       <c r="M3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="129"/>
+      <c r="P3" s="134"/>
       <c r="Q3" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="R3" s="131"/>
-      <c r="S3" s="131"/>
+        <v>210</v>
+      </c>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
     </row>
     <row r="4" spans="2:19" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="112"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="23" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="28" t="s">
+        <v>660</v>
+      </c>
       <c r="F4" s="52" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="81"/>
+        <v>628</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="J4" s="83"/>
+      <c r="K4" s="80"/>
       <c r="L4" s="4"/>
       <c r="M4" s="21"/>
       <c r="P4" s="37">
         <v>1</v>
       </c>
       <c r="Q4" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="R4" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="S4" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6764,7 +6787,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>11</v>
@@ -6781,13 +6804,13 @@
       <c r="H5" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="101" t="s">
         <v>204</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>573</v>
-      </c>
-      <c r="K5" s="82" t="s">
+        <v>569</v>
+      </c>
+      <c r="K5" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -6800,48 +6823,48 @@
         <v>2</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R5" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S5" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="113" t="s">
-        <v>647</v>
-      </c>
-      <c r="D6" s="122" t="s">
+      <c r="C6" s="118" t="s">
+        <v>643</v>
+      </c>
+      <c r="D6" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="116" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="116" t="s">
-        <v>652</v>
+      <c r="E6" s="121" t="s">
+        <v>666</v>
+      </c>
+      <c r="F6" s="121" t="s">
+        <v>648</v>
       </c>
       <c r="G6" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="K6" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="H6" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6" s="123" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>574</v>
-      </c>
-      <c r="K6" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>205</v>
@@ -6850,36 +6873,36 @@
         <v>3</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S6" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="H7" s="117"/>
-      <c r="I7" s="123"/>
+        <v>237</v>
+      </c>
+      <c r="H7" s="122"/>
+      <c r="I7" s="128"/>
       <c r="J7" s="46" t="s">
-        <v>575</v>
-      </c>
-      <c r="K7" s="82" t="s">
+        <v>571</v>
+      </c>
+      <c r="K7" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>205</v>
@@ -6888,38 +6911,38 @@
         <v>4</v>
       </c>
       <c r="Q7" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S7" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="116" t="s">
+      <c r="C8" s="119"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="121" t="s">
         <v>204</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="123"/>
+        <v>238</v>
+      </c>
+      <c r="H8" s="122"/>
+      <c r="I8" s="128"/>
       <c r="J8" s="46" t="s">
-        <v>576</v>
-      </c>
-      <c r="K8" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="K8" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>205</v>
@@ -6928,36 +6951,36 @@
         <v>5</v>
       </c>
       <c r="Q8" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S8" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
       <c r="G9" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="123"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="46" t="s">
+        <v>573</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="46" t="s">
-        <v>577</v>
-      </c>
-      <c r="K9" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>205</v>
@@ -6966,44 +6989,44 @@
         <v>6</v>
       </c>
       <c r="Q9" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S9" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="116" t="s">
-        <v>242</v>
-      </c>
-      <c r="F10" s="116" t="s">
-        <v>646</v>
-      </c>
-      <c r="G10" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="H10" s="116" t="s">
-        <v>415</v>
+      <c r="C10" s="119"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="121" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="121" t="s">
+        <v>642</v>
+      </c>
+      <c r="G10" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="121" t="s">
+        <v>414</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>578</v>
-      </c>
-      <c r="K10" s="82" t="s">
+        <v>574</v>
+      </c>
+      <c r="K10" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>205</v>
@@ -7012,36 +7035,36 @@
         <v>7</v>
       </c>
       <c r="Q10" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="S10" s="38" t="s">
         <v>221</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="S10" s="38" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>579</v>
-      </c>
-      <c r="K11" s="82" t="s">
+        <v>575</v>
+      </c>
+      <c r="K11" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>205</v>
@@ -7050,36 +7073,36 @@
         <v>8.1</v>
       </c>
       <c r="Q11" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R11" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S11" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
       <c r="I12" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>580</v>
-      </c>
-      <c r="K12" s="82" t="s">
+        <v>576</v>
+      </c>
+      <c r="K12" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>205</v>
@@ -7088,40 +7111,40 @@
         <v>8.1</v>
       </c>
       <c r="Q12" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R12" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S12" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
       <c r="G13" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H13" s="116" t="s">
-        <v>416</v>
-      </c>
-      <c r="I13" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="121" t="s">
+        <v>415</v>
+      </c>
+      <c r="I13" s="130" t="s">
         <v>204</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>581</v>
-      </c>
-      <c r="K13" s="82" t="s">
+        <v>577</v>
+      </c>
+      <c r="K13" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>205</v>
@@ -7130,36 +7153,36 @@
         <v>8.1</v>
       </c>
       <c r="Q13" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R13" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S13" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="H14" s="118"/>
-      <c r="I14" s="124"/>
+        <v>247</v>
+      </c>
+      <c r="H14" s="123"/>
+      <c r="I14" s="129"/>
       <c r="J14" s="46" t="s">
-        <v>582</v>
-      </c>
-      <c r="K14" s="82" t="s">
+        <v>578</v>
+      </c>
+      <c r="K14" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>205</v>
@@ -7168,40 +7191,40 @@
         <v>8.1</v>
       </c>
       <c r="Q14" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R14" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S14" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H15" s="116" t="s">
-        <v>417</v>
-      </c>
-      <c r="I15" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="H15" s="121" t="s">
+        <v>416</v>
+      </c>
+      <c r="I15" s="130" t="s">
         <v>204</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>583</v>
-      </c>
-      <c r="K15" s="82" t="s">
+        <v>579</v>
+      </c>
+      <c r="K15" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>205</v>
@@ -7210,36 +7233,36 @@
         <v>8.1</v>
       </c>
       <c r="Q15" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R15" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S15" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="123"/>
       <c r="G16" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="H16" s="118"/>
-      <c r="I16" s="124"/>
+        <v>247</v>
+      </c>
+      <c r="H16" s="123"/>
+      <c r="I16" s="129"/>
       <c r="J16" s="46" t="s">
-        <v>584</v>
-      </c>
-      <c r="K16" s="82" t="s">
+        <v>580</v>
+      </c>
+      <c r="K16" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>205</v>
@@ -7248,42 +7271,42 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="Q16" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="S16" s="38" t="s">
         <v>224</v>
-      </c>
-      <c r="R16" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="S16" s="38" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="116" t="s">
-        <v>647</v>
-      </c>
-      <c r="G17" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="H17" s="117" t="s">
-        <v>418</v>
+      <c r="C17" s="119"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="121" t="s">
+        <v>643</v>
+      </c>
+      <c r="G17" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="122" t="s">
+        <v>417</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>585</v>
-      </c>
-      <c r="K17" s="82" t="s">
+        <v>581</v>
+      </c>
+      <c r="K17" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>205</v>
@@ -7292,36 +7315,36 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="Q17" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R17" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S17" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="123"/>
       <c r="I18" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>586</v>
-      </c>
-      <c r="K18" s="82" t="s">
+        <v>582</v>
+      </c>
+      <c r="K18" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>205</v>
@@ -7330,114 +7353,114 @@
         <v>9</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R18" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S18" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="116" t="s">
-        <v>419</v>
+      <c r="C19" s="119"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="121" t="s">
+        <v>418</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>587</v>
-      </c>
-      <c r="K19" s="82" t="s">
+        <v>583</v>
+      </c>
+      <c r="K19" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="P19" s="135">
+      <c r="P19" s="97">
         <v>10</v>
       </c>
-      <c r="Q19" s="136" t="s">
-        <v>228</v>
-      </c>
-      <c r="R19" s="136" t="s">
-        <v>215</v>
-      </c>
-      <c r="S19" s="136" t="s">
-        <v>222</v>
+      <c r="Q19" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="R19" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="S19" s="98" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
       <c r="I20" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>588</v>
-      </c>
-      <c r="K20" s="82" t="s">
+        <v>584</v>
+      </c>
+      <c r="K20" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="P20" s="135">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="136" t="s">
-        <v>229</v>
-      </c>
-      <c r="R20" s="136" t="s">
-        <v>215</v>
-      </c>
-      <c r="S20" s="136" t="s">
-        <v>215</v>
+      <c r="P20" s="97">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="R20" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="S20" s="98" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="123"/>
       <c r="I21" s="30" t="s">
-        <v>431</v>
+        <v>661</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>589</v>
-      </c>
-      <c r="K21" s="82" t="s">
+        <v>585</v>
+      </c>
+      <c r="K21" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>205</v>
@@ -7446,38 +7469,38 @@
         <v>12</v>
       </c>
       <c r="Q21" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R21" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S21" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
       <c r="H22" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="I22" s="119" t="s">
+        <v>419</v>
+      </c>
+      <c r="I22" s="124" t="s">
         <v>204</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="K22" s="82" t="s">
+        <v>586</v>
+      </c>
+      <c r="K22" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>205</v>
@@ -7486,36 +7509,36 @@
         <v>13</v>
       </c>
       <c r="Q22" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S22" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
       <c r="H23" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="I23" s="121"/>
+        <v>420</v>
+      </c>
+      <c r="I23" s="126"/>
       <c r="J23" s="46" t="s">
-        <v>591</v>
-      </c>
-      <c r="K23" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="K23" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>205</v>
@@ -7524,42 +7547,42 @@
         <v>14</v>
       </c>
       <c r="Q23" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R23" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S23" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="116" t="s">
-        <v>653</v>
-      </c>
-      <c r="G24" s="116" t="s">
+      <c r="C24" s="119"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="121" t="s">
+        <v>649</v>
+      </c>
+      <c r="G24" s="121" t="s">
         <v>204</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="I24" s="119" t="s">
+        <v>421</v>
+      </c>
+      <c r="I24" s="124" t="s">
         <v>204</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>592</v>
-      </c>
-      <c r="K24" s="82" t="s">
+        <v>588</v>
+      </c>
+      <c r="K24" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>205</v>
@@ -7568,36 +7591,36 @@
         <v>15</v>
       </c>
       <c r="Q24" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R24" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S24" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="I25" s="120"/>
+        <v>422</v>
+      </c>
+      <c r="I25" s="125"/>
       <c r="J25" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="K25" s="82" t="s">
+        <v>589</v>
+      </c>
+      <c r="K25" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>205</v>
@@ -7606,36 +7629,36 @@
         <v>16</v>
       </c>
       <c r="Q25" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="R25" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="S25" s="38" t="s">
         <v>234</v>
-      </c>
-      <c r="R25" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="S25" s="38" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
       <c r="H26" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="I26" s="121"/>
+        <v>423</v>
+      </c>
+      <c r="I26" s="126"/>
       <c r="J26" s="46" t="s">
-        <v>594</v>
-      </c>
-      <c r="K26" s="82" t="s">
+        <v>590</v>
+      </c>
+      <c r="K26" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>205</v>
@@ -7645,29 +7668,29 @@
       <c r="B27" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="116" t="s">
-        <v>654</v>
-      </c>
-      <c r="G27" s="116" t="s">
-        <v>252</v>
+      <c r="C27" s="119"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="121" t="s">
+        <v>650</v>
+      </c>
+      <c r="G27" s="121" t="s">
+        <v>251</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="I27" s="119" t="s">
+        <v>424</v>
+      </c>
+      <c r="I27" s="124" t="s">
         <v>204</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>595</v>
-      </c>
-      <c r="K27" s="82" t="s">
+        <v>591</v>
+      </c>
+      <c r="K27" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>205</v>
@@ -7677,23 +7700,23 @@
       <c r="B28" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="118"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="123"/>
       <c r="H28" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="I28" s="121"/>
+        <v>430</v>
+      </c>
+      <c r="I28" s="126"/>
       <c r="J28" s="46" t="s">
-        <v>596</v>
-      </c>
-      <c r="K28" s="82" t="s">
+        <v>592</v>
+      </c>
+      <c r="K28" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>205</v>
@@ -7703,27 +7726,27 @@
       <c r="B29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="116" t="s">
+      <c r="C29" s="119"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="121" t="s">
+        <v>252</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="I29" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="K29" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="I29" s="119" t="s">
-        <v>204</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>597</v>
-      </c>
-      <c r="K29" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>205</v>
@@ -7733,23 +7756,23 @@
       <c r="B30" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
       <c r="H30" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="I30" s="121"/>
+        <v>432</v>
+      </c>
+      <c r="I30" s="126"/>
       <c r="J30" s="46" t="s">
-        <v>598</v>
-      </c>
-      <c r="K30" s="82" t="s">
+        <v>594</v>
+      </c>
+      <c r="K30" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>205</v>
@@ -7759,29 +7782,29 @@
       <c r="B31" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="116" t="s">
-        <v>655</v>
-      </c>
-      <c r="G31" s="116" t="s">
-        <v>257</v>
+      <c r="C31" s="119"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="121" t="s">
+        <v>651</v>
+      </c>
+      <c r="G31" s="121" t="s">
+        <v>256</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="I31" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="I31" s="124" t="s">
         <v>204</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>599</v>
-      </c>
-      <c r="K31" s="82" t="s">
+        <v>595</v>
+      </c>
+      <c r="K31" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>205</v>
@@ -7791,23 +7814,23 @@
       <c r="B32" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
       <c r="H32" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="I32" s="120"/>
+        <v>663</v>
+      </c>
+      <c r="I32" s="125"/>
       <c r="J32" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="K32" s="82" t="s">
+        <v>596</v>
+      </c>
+      <c r="K32" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>205</v>
@@ -7817,23 +7840,23 @@
       <c r="B33" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="114"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="118"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="123"/>
       <c r="H33" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="I33" s="121"/>
+        <v>434</v>
+      </c>
+      <c r="I33" s="126"/>
       <c r="J33" s="46" t="s">
-        <v>601</v>
-      </c>
-      <c r="K33" s="82" t="s">
+        <v>597</v>
+      </c>
+      <c r="K33" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>205</v>
@@ -7843,12 +7866,12 @@
       <c r="B34" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="118"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="123"/>
       <c r="G34" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>204</v>
@@ -7857,13 +7880,13 @@
         <v>204</v>
       </c>
       <c r="J34" s="46" t="s">
-        <v>602</v>
-      </c>
-      <c r="K34" s="82" t="s">
+        <v>598</v>
+      </c>
+      <c r="K34" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M34" s="6" t="s">
         <v>205</v>
@@ -7873,29 +7896,29 @@
       <c r="B35" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="116" t="s">
-        <v>656</v>
-      </c>
-      <c r="G35" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="H35" s="116" t="s">
-        <v>440</v>
+      <c r="C35" s="119"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="121" t="s">
+        <v>652</v>
+      </c>
+      <c r="G35" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="121" t="s">
+        <v>437</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>603</v>
-      </c>
-      <c r="K35" s="82" t="s">
+        <v>599</v>
+      </c>
+      <c r="K35" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M35" s="6" t="s">
         <v>205</v>
@@ -7905,23 +7928,23 @@
       <c r="B36" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="118"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="123"/>
       <c r="I36" s="30" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>604</v>
-      </c>
-      <c r="K36" s="82" t="s">
+        <v>600</v>
+      </c>
+      <c r="K36" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>205</v>
@@ -7931,25 +7954,25 @@
       <c r="B37" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="114"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
       <c r="H37" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="I37" s="119" t="s">
+        <v>438</v>
+      </c>
+      <c r="I37" s="124" t="s">
         <v>204</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="K37" s="82" t="s">
+        <v>601</v>
+      </c>
+      <c r="K37" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>205</v>
@@ -7959,23 +7982,23 @@
       <c r="B38" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
       <c r="H38" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="I38" s="121"/>
+        <v>439</v>
+      </c>
+      <c r="I38" s="126"/>
       <c r="J38" s="46" t="s">
-        <v>489</v>
-      </c>
-      <c r="K38" s="82" t="s">
+        <v>485</v>
+      </c>
+      <c r="K38" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M38" s="6" t="s">
         <v>205</v>
@@ -7985,29 +8008,29 @@
       <c r="B39" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="116" t="s">
-        <v>657</v>
-      </c>
-      <c r="G39" s="116" t="s">
+      <c r="C39" s="119"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="121" t="s">
+        <v>667</v>
+      </c>
+      <c r="G39" s="121" t="s">
         <v>204</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="I39" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="I39" s="124" t="s">
         <v>204</v>
       </c>
       <c r="J39" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="K39" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="K39" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>205</v>
@@ -8017,23 +8040,23 @@
       <c r="B40" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
       <c r="H40" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="I40" s="120"/>
+        <v>440</v>
+      </c>
+      <c r="I40" s="125"/>
       <c r="J40" s="46" t="s">
-        <v>491</v>
-      </c>
-      <c r="K40" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="K40" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>205</v>
@@ -8043,23 +8066,23 @@
       <c r="B41" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="114"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
       <c r="H41" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="I41" s="121"/>
+        <v>441</v>
+      </c>
+      <c r="I41" s="126"/>
       <c r="J41" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="K41" s="82" t="s">
+        <v>488</v>
+      </c>
+      <c r="K41" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M41" s="6" t="s">
         <v>205</v>
@@ -8069,29 +8092,29 @@
       <c r="B42" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="116" t="s">
-        <v>658</v>
-      </c>
-      <c r="G42" s="116" t="s">
+      <c r="C42" s="119"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="121" t="s">
+        <v>653</v>
+      </c>
+      <c r="G42" s="121" t="s">
         <v>204</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="I42" s="119" t="s">
+        <v>442</v>
+      </c>
+      <c r="I42" s="124" t="s">
         <v>204</v>
       </c>
       <c r="J42" s="46" t="s">
-        <v>493</v>
-      </c>
-      <c r="K42" s="82" t="s">
+        <v>489</v>
+      </c>
+      <c r="K42" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M42" s="6" t="s">
         <v>205</v>
@@ -8101,23 +8124,23 @@
       <c r="B43" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
       <c r="H43" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="I43" s="120"/>
+        <v>443</v>
+      </c>
+      <c r="I43" s="125"/>
       <c r="J43" s="46" t="s">
-        <v>494</v>
-      </c>
-      <c r="K43" s="82" t="s">
+        <v>490</v>
+      </c>
+      <c r="K43" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M43" s="6" t="s">
         <v>205</v>
@@ -8127,23 +8150,23 @@
       <c r="B44" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="I44" s="120"/>
+        <v>444</v>
+      </c>
+      <c r="I44" s="125"/>
       <c r="J44" s="46" t="s">
-        <v>495</v>
-      </c>
-      <c r="K44" s="82" t="s">
+        <v>491</v>
+      </c>
+      <c r="K44" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>205</v>
@@ -8153,23 +8176,23 @@
       <c r="B45" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
       <c r="H45" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="I45" s="121"/>
+        <v>432</v>
+      </c>
+      <c r="I45" s="126"/>
       <c r="J45" s="46" t="s">
-        <v>496</v>
-      </c>
-      <c r="K45" s="82" t="s">
+        <v>492</v>
+      </c>
+      <c r="K45" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M45" s="6" t="s">
         <v>205</v>
@@ -8179,11 +8202,11 @@
       <c r="B46" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="117"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="122"/>
       <c r="F46" s="30" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>204</v>
@@ -8195,13 +8218,13 @@
         <v>204</v>
       </c>
       <c r="J46" s="46" t="s">
-        <v>497</v>
-      </c>
-      <c r="K46" s="82" t="s">
+        <v>493</v>
+      </c>
+      <c r="K46" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>205</v>
@@ -8211,27 +8234,27 @@
       <c r="B47" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="116" t="s">
-        <v>660</v>
-      </c>
-      <c r="G47" s="116" t="s">
+      <c r="C47" s="119"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="121" t="s">
+        <v>655</v>
+      </c>
+      <c r="G47" s="121" t="s">
         <v>204</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I47" s="30"/>
       <c r="J47" s="46" t="s">
-        <v>498</v>
-      </c>
-      <c r="K47" s="82" t="s">
+        <v>494</v>
+      </c>
+      <c r="K47" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M47" s="6" t="s">
         <v>205</v>
@@ -8241,25 +8264,25 @@
       <c r="B48" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="116" t="s">
-        <v>449</v>
+      <c r="C48" s="119"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="121" t="s">
+        <v>446</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J48" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="K48" s="82" t="s">
+        <v>495</v>
+      </c>
+      <c r="K48" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M48" s="6" t="s">
         <v>205</v>
@@ -8269,23 +8292,23 @@
       <c r="B49" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="118"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="123"/>
       <c r="I49" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J49" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="K49" s="82" t="s">
+        <v>496</v>
+      </c>
+      <c r="K49" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M49" s="6" t="s">
         <v>205</v>
@@ -8295,25 +8318,25 @@
       <c r="B50" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="116" t="s">
-        <v>452</v>
+      <c r="C50" s="119"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="121" t="s">
+        <v>449</v>
       </c>
       <c r="I50" s="30" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J50" s="46" t="s">
-        <v>501</v>
-      </c>
-      <c r="K50" s="82" t="s">
+        <v>497</v>
+      </c>
+      <c r="K50" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>205</v>
@@ -8323,23 +8346,23 @@
       <c r="B51" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="114"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="118"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="123"/>
       <c r="I51" s="30" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J51" s="46" t="s">
-        <v>501</v>
-      </c>
-      <c r="K51" s="82" t="s">
+        <v>497</v>
+      </c>
+      <c r="K51" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M51" s="6" t="s">
         <v>205</v>
@@ -8349,25 +8372,25 @@
       <c r="B52" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="123"/>
       <c r="H52" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I52" s="17" t="s">
         <v>204</v>
       </c>
       <c r="J52" s="46" t="s">
-        <v>502</v>
-      </c>
-      <c r="K52" s="82" t="s">
+        <v>498</v>
+      </c>
+      <c r="K52" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>205</v>
@@ -8377,27 +8400,27 @@
       <c r="B53" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="114"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="G53" s="117" t="s">
+      <c r="C53" s="119"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="122" t="s">
         <v>204</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="I53" s="120"/>
+        <v>450</v>
+      </c>
+      <c r="I53" s="125"/>
       <c r="J53" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="K53" s="82" t="s">
+        <v>499</v>
+      </c>
+      <c r="K53" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M53" s="6" t="s">
         <v>205</v>
@@ -8407,23 +8430,23 @@
       <c r="B54" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="114"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
       <c r="H54" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="I54" s="120"/>
+        <v>451</v>
+      </c>
+      <c r="I54" s="125"/>
       <c r="J54" s="46" t="s">
-        <v>504</v>
-      </c>
-      <c r="K54" s="82" t="s">
+        <v>500</v>
+      </c>
+      <c r="K54" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>205</v>
@@ -8433,23 +8456,23 @@
       <c r="B55" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="115"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="118"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
       <c r="H55" s="30" t="s">
-        <v>455</v>
-      </c>
-      <c r="I55" s="121"/>
+        <v>452</v>
+      </c>
+      <c r="I55" s="126"/>
       <c r="J55" s="46" t="s">
-        <v>505</v>
-      </c>
-      <c r="K55" s="82" t="s">
+        <v>501</v>
+      </c>
+      <c r="K55" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M55" s="6" t="s">
         <v>205</v>
@@ -8457,10 +8480,10 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C56" s="72" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>204</v>
@@ -8481,13 +8504,13 @@
         <v>204</v>
       </c>
       <c r="J56" s="46" t="s">
-        <v>506</v>
-      </c>
-      <c r="K56" s="82" t="s">
+        <v>502</v>
+      </c>
+      <c r="K56" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>205</v>
@@ -8497,8 +8520,8 @@
       <c r="B57" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="113" t="s">
-        <v>646</v>
+      <c r="C57" s="118" t="s">
+        <v>642</v>
       </c>
       <c r="D57" s="30" t="s">
         <v>11</v>
@@ -8519,168 +8542,168 @@
         <v>204</v>
       </c>
       <c r="J57" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="K57" s="82" t="s">
+        <v>503</v>
+      </c>
+      <c r="K57" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>103</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="114"/>
-      <c r="D58" s="116" t="s">
+      <c r="C58" s="119"/>
+      <c r="D58" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="116" t="s">
+      <c r="E58" s="121" t="s">
         <v>204</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G58" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="H58" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="I58" s="119" t="s">
+        <v>263</v>
+      </c>
+      <c r="H58" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="I58" s="124" t="s">
         <v>204</v>
       </c>
       <c r="J58" s="46" t="s">
-        <v>508</v>
-      </c>
-      <c r="K58" s="82" t="s">
+        <v>504</v>
+      </c>
+      <c r="K58" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="114"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="92" t="s">
-        <v>654</v>
+      <c r="C59" s="119"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="91" t="s">
+        <v>650</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="H59" s="117"/>
-      <c r="I59" s="120"/>
+        <v>264</v>
+      </c>
+      <c r="H59" s="122"/>
+      <c r="I59" s="125"/>
       <c r="J59" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="K59" s="82" t="s">
+        <v>505</v>
+      </c>
+      <c r="K59" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="114"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="92" t="s">
-        <v>647</v>
-      </c>
-      <c r="G60" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="H60" s="117"/>
-      <c r="I60" s="120"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="91" t="s">
+        <v>643</v>
+      </c>
+      <c r="G60" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="H60" s="122"/>
+      <c r="I60" s="125"/>
       <c r="J60" s="46" t="s">
-        <v>510</v>
-      </c>
-      <c r="K60" s="82" t="s">
+        <v>506</v>
+      </c>
+      <c r="K60" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="114"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="92" t="s">
-        <v>653</v>
-      </c>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="120"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="91" t="s">
+        <v>649</v>
+      </c>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="125"/>
       <c r="J61" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="K61" s="82" t="s">
+        <v>507</v>
+      </c>
+      <c r="K61" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="115"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="118"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
       <c r="F62" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G62" s="118"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="121"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="126"/>
       <c r="J62" s="46" t="s">
-        <v>512</v>
-      </c>
-      <c r="K62" s="82" t="s">
+        <v>508</v>
+      </c>
+      <c r="K62" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C63" s="72" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>204</v>
@@ -8701,21 +8724,21 @@
         <v>204</v>
       </c>
       <c r="J63" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="K63" s="82" t="s">
+        <v>509</v>
+      </c>
+      <c r="K63" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C64" s="74" t="s">
         <v>204</v>
@@ -8739,13 +8762,13 @@
         <v>204</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="K64" s="82" t="s">
+        <v>641</v>
+      </c>
+      <c r="K64" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>22</v>
@@ -8821,6 +8844,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C20EAD-A940-43FB-B3FF-2FCDCDC2445D}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8841,35 +8865,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>271</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>272</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>202</v>
@@ -8877,11 +8901,11 @@
       <c r="H3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="90" t="s">
-        <v>396</v>
+      <c r="J3" s="89" t="s">
+        <v>395</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>9</v>
@@ -8891,9 +8915,9 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="112"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="23" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>10</v>
@@ -8903,11 +8927,11 @@
         <v>10</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="91"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="90"/>
       <c r="K4" s="4"/>
       <c r="L4" s="21"/>
     </row>
@@ -8915,8 +8939,8 @@
       <c r="B5" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="132" t="s">
-        <v>647</v>
+      <c r="C5" s="137" t="s">
+        <v>643</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>11</v>
@@ -8933,8 +8957,8 @@
       <c r="H5" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="87" t="s">
-        <v>516</v>
+      <c r="I5" s="86" t="s">
+        <v>512</v>
       </c>
       <c r="J5" s="41" t="s">
         <v>11</v>
@@ -8943,312 +8967,312 @@
         <v>49</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="116" t="s">
-        <v>273</v>
+      <c r="C6" s="119"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="121" t="s">
+        <v>272</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>204</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H6" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="88" t="s">
-        <v>518</v>
+      <c r="I6" s="87" t="s">
+        <v>514</v>
       </c>
       <c r="J6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="44"/>
       <c r="G7" s="30" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H7" s="61"/>
-      <c r="I7" s="88" t="s">
-        <v>519</v>
+      <c r="I7" s="87" t="s">
+        <v>515</v>
       </c>
       <c r="J7" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="118"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="44"/>
       <c r="G8" s="30" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H8" s="61"/>
-      <c r="I8" s="88" t="s">
-        <v>520</v>
+      <c r="I8" s="87" t="s">
+        <v>516</v>
       </c>
       <c r="J8" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="116" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="116" t="s">
+      <c r="C9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="121" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="121" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="H9" s="119" t="s">
-        <v>204</v>
-      </c>
-      <c r="I9" s="88" t="s">
-        <v>521</v>
+        <v>456</v>
+      </c>
+      <c r="H9" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="87" t="s">
+        <v>517</v>
       </c>
       <c r="J9" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="123"/>
       <c r="G10" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="88" t="s">
-        <v>522</v>
+        <v>457</v>
+      </c>
+      <c r="H10" s="125"/>
+      <c r="I10" s="87" t="s">
+        <v>518</v>
       </c>
       <c r="J10" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="116" t="s">
+      <c r="C11" s="119"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="121" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="H11" s="120"/>
-      <c r="I11" s="88" t="s">
-        <v>523</v>
+        <v>453</v>
+      </c>
+      <c r="H11" s="125"/>
+      <c r="I11" s="87" t="s">
+        <v>519</v>
       </c>
       <c r="J11" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
       <c r="G12" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="88" t="s">
-        <v>524</v>
+        <v>458</v>
+      </c>
+      <c r="H12" s="126"/>
+      <c r="I12" s="87" t="s">
+        <v>520</v>
       </c>
       <c r="J12" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="116" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="116" t="s">
+      <c r="C13" s="119"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="121" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="121" t="s">
         <v>204</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="I13" s="88" t="s">
-        <v>525</v>
+      <c r="I13" s="87" t="s">
+        <v>521</v>
       </c>
       <c r="J13" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="116" t="s">
-        <v>463</v>
+      <c r="C14" s="119"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="121" t="s">
+        <v>460</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="I14" s="88" t="s">
-        <v>526</v>
+        <v>275</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>522</v>
       </c>
       <c r="J14" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
       <c r="H15" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="I15" s="88" t="s">
-        <v>527</v>
+        <v>461</v>
+      </c>
+      <c r="I15" s="87" t="s">
+        <v>523</v>
       </c>
       <c r="J15" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
       <c r="H16" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I16" s="88" t="s">
-        <v>528</v>
+        <v>276</v>
+      </c>
+      <c r="I16" s="87" t="s">
+        <v>524</v>
       </c>
       <c r="J16" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="118"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>204</v>
@@ -9259,25 +9283,25 @@
       <c r="H17" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="I17" s="88" t="s">
-        <v>529</v>
+      <c r="I17" s="87" t="s">
+        <v>525</v>
       </c>
       <c r="J17" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>204</v>
@@ -9294,25 +9318,25 @@
       <c r="H18" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="I18" s="88" t="s">
-        <v>517</v>
+      <c r="I18" s="87" t="s">
+        <v>513</v>
       </c>
       <c r="J18" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="113" t="s">
-        <v>646</v>
+      <c r="C19" s="118" t="s">
+        <v>642</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>11</v>
@@ -9329,8 +9353,8 @@
       <c r="H19" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="I19" s="89" t="s">
-        <v>530</v>
+      <c r="I19" s="88" t="s">
+        <v>526</v>
       </c>
       <c r="J19" s="41" t="s">
         <v>11</v>
@@ -9339,127 +9363,127 @@
         <v>103</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="116" t="s">
+      <c r="C20" s="119"/>
+      <c r="D20" s="121" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>514</v>
-      </c>
-      <c r="F20" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="G20" s="116" t="s">
+        <v>510</v>
+      </c>
+      <c r="F20" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="121" t="s">
         <v>204</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="I20" s="88" t="s">
-        <v>531</v>
+        <v>278</v>
+      </c>
+      <c r="I20" s="87" t="s">
+        <v>527</v>
       </c>
       <c r="J20" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="117"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="122"/>
       <c r="E21" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="119" t="s">
-        <v>280</v>
-      </c>
-      <c r="I21" s="88" t="s">
-        <v>532</v>
+        <v>272</v>
+      </c>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="124" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" s="87" t="s">
+        <v>528</v>
       </c>
       <c r="J21" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="117"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="122"/>
       <c r="E22" s="39" t="s">
-        <v>515</v>
-      </c>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="88" t="s">
-        <v>533</v>
+        <v>511</v>
+      </c>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="87" t="s">
+        <v>529</v>
       </c>
       <c r="J22" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="118"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="123"/>
       <c r="E23" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
+        <v>277</v>
+      </c>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
       <c r="H23" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="I23" s="88" t="s">
-        <v>534</v>
+      <c r="I23" s="87" t="s">
+        <v>530</v>
       </c>
       <c r="J23" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>204</v>
@@ -9476,22 +9500,22 @@
       <c r="H24" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="I24" s="88" t="s">
-        <v>535</v>
+      <c r="I24" s="87" t="s">
+        <v>531</v>
       </c>
       <c r="J24" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C25" s="74" t="s">
         <v>204</v>
@@ -9512,13 +9536,13 @@
         <v>204</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J25" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>22</v>
@@ -9551,9 +9575,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5588BB-7AA2-4D06-BBA2-61FCD0054F99}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9566,35 +9593,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="F3" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="90" t="s">
-        <v>396</v>
+      <c r="G3" s="89" t="s">
+        <v>395</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -9604,18 +9631,18 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="112"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="91"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="4"/>
       <c r="I4" s="21"/>
     </row>
@@ -9632,8 +9659,8 @@
       <c r="E5" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="87" t="s">
-        <v>536</v>
+      <c r="F5" s="86" t="s">
+        <v>532</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>11</v>
@@ -9649,17 +9676,17 @@
       <c r="B6" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="116" t="s">
-        <v>465</v>
+      <c r="D6" s="121" t="s">
+        <v>462</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="88" t="s">
-        <v>537</v>
+      <c r="F6" s="87" t="s">
+        <v>533</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>11</v>
@@ -9668,20 +9695,20 @@
         <v>111</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="88" t="s">
-        <v>538</v>
+      <c r="F7" s="87" t="s">
+        <v>534</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>11</v>
@@ -9690,22 +9717,22 @@
         <v>111</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="116" t="s">
-        <v>466</v>
+      <c r="C8" s="119"/>
+      <c r="D8" s="121" t="s">
+        <v>463</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="88" t="s">
-        <v>539</v>
+      <c r="F8" s="87" t="s">
+        <v>535</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>11</v>
@@ -9714,20 +9741,20 @@
         <v>111</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="118"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="88" t="s">
-        <v>540</v>
+      <c r="F9" s="87" t="s">
+        <v>536</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>11</v>
@@ -9736,22 +9763,22 @@
         <v>111</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="116" t="s">
-        <v>467</v>
+      <c r="C10" s="119"/>
+      <c r="D10" s="121" t="s">
+        <v>662</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="88" t="s">
-        <v>541</v>
+      <c r="F10" s="87" t="s">
+        <v>537</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>11</v>
@@ -9760,20 +9787,20 @@
         <v>111</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="118"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="88" t="s">
-        <v>542</v>
+      <c r="F11" s="87" t="s">
+        <v>538</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>11</v>
@@ -9782,33 +9809,33 @@
         <v>111</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="87" t="s">
+        <v>539</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>543</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>329</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -9828,9 +9855,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25A1DA5-E907-4DB7-93F8-5F875866AB85}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9843,21 +9873,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="55" t="s">
@@ -9867,19 +9897,19 @@
         <v>38</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F3" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="G3" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="90" t="s">
-        <v>396</v>
+      <c r="I3" s="89" t="s">
+        <v>395</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>9</v>
@@ -9889,7 +9919,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="112"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="56" t="s">
         <v>10</v>
       </c>
@@ -9897,12 +9927,12 @@
         <v>10</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="52"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="91"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="90"/>
       <c r="J4" s="4"/>
       <c r="K4" s="21"/>
     </row>
@@ -9925,8 +9955,8 @@
       <c r="G5" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="89" t="s">
-        <v>544</v>
+      <c r="H5" s="88" t="s">
+        <v>540</v>
       </c>
       <c r="I5" s="41" t="s">
         <v>11</v>
@@ -9942,141 +9972,141 @@
       <c r="B6" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="121" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="119" t="s">
-        <v>204</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>545</v>
+      <c r="G6" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>541</v>
       </c>
       <c r="I6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="116" t="s">
-        <v>469</v>
+      <c r="C7" s="119"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="121" t="s">
+        <v>465</v>
       </c>
       <c r="F7" s="17">
         <v>4</v>
       </c>
-      <c r="G7" s="120"/>
-      <c r="H7" s="88" t="s">
-        <v>546</v>
+      <c r="G7" s="125"/>
+      <c r="H7" s="87" t="s">
+        <v>542</v>
       </c>
       <c r="I7" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="118"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="88" t="s">
-        <v>547</v>
+        <v>466</v>
+      </c>
+      <c r="G8" s="126"/>
+      <c r="H8" s="87" t="s">
+        <v>543</v>
       </c>
       <c r="I8" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="116">
+      <c r="C9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="121">
         <v>0</v>
       </c>
-      <c r="F9" s="116" t="s">
+      <c r="F9" s="121" t="s">
         <v>204</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="H9" s="88" t="s">
-        <v>548</v>
+        <v>467</v>
+      </c>
+      <c r="H9" s="87" t="s">
+        <v>544</v>
       </c>
       <c r="I9" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
       <c r="G10" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="H10" s="88" t="s">
-        <v>549</v>
+        <v>468</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>545</v>
       </c>
       <c r="I10" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="115"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="17" t="s">
         <v>11</v>
       </c>
@@ -10089,22 +10119,22 @@
       <c r="G11" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="88" t="s">
-        <v>550</v>
+      <c r="H11" s="87" t="s">
+        <v>546</v>
       </c>
       <c r="I11" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>204</v>
@@ -10121,17 +10151,17 @@
       <c r="G12" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="88" t="s">
-        <v>551</v>
+      <c r="H12" s="87" t="s">
+        <v>547</v>
       </c>
       <c r="I12" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -10152,6 +10182,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A351FD73-EDD1-4445-84BA-6BB91D22EE08}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10169,20 +10200,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="116" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="55" t="s">
@@ -10197,11 +10228,11 @@
       <c r="F3" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="90" t="s">
-        <v>396</v>
+      <c r="H3" s="89" t="s">
+        <v>395</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
@@ -10211,7 +10242,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="112"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="56" t="s">
         <v>10</v>
       </c>
@@ -10221,7 +10252,7 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="91"/>
+      <c r="H4" s="90"/>
       <c r="I4" s="4"/>
       <c r="J4" s="21"/>
     </row>
@@ -10229,130 +10260,130 @@
       <c r="B5" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="133" t="s">
+      <c r="C5" s="119"/>
+      <c r="D5" s="122" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="138" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="G5" s="88" t="s">
-        <v>552</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>296</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>553</v>
+        <v>470</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>549</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123"/>
       <c r="F7" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="G7" s="88" t="s">
-        <v>554</v>
+        <v>471</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>550</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="117"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="122"/>
       <c r="E8" s="30" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F8" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="G8" s="88" t="s">
-        <v>555</v>
+      <c r="G8" s="87" t="s">
+        <v>551</v>
       </c>
       <c r="H8" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="118"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="30" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F9" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="88" t="s">
-        <v>556</v>
+      <c r="G9" s="87" t="s">
+        <v>552</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="115"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="30" t="s">
         <v>11</v>
       </c>
@@ -10362,46 +10393,46 @@
       <c r="F10" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="G10" s="88" t="s">
-        <v>557</v>
+      <c r="G10" s="87" t="s">
+        <v>553</v>
       </c>
       <c r="H10" s="41" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>554</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="89" t="s">
-        <v>558</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>335</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
